--- a/QA_Manual.xlsx
+++ b/QA_Manual.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denislyakhovich/Developer/01_Testing/02_Lanit/Git_repository/QAManual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FED58FF-5218-9C46-8EDB-9E7020FF5D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CEFC94-0C5E-824D-AE9A-4E1FCA42370B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{AA563E63-BF44-FF41-8EAE-9B7CB0C92A59}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" activeTab="4" xr2:uid="{AA563E63-BF44-FF41-8EAE-9B7CB0C92A59}"/>
   </bookViews>
   <sheets>
     <sheet name="QA_Manual_Navigation" sheetId="1" r:id="rId1"/>
     <sheet name="01_SLC_SDLC_STLC" sheetId="2" r:id="rId2"/>
     <sheet name="02_Types_of_testing" sheetId="3" r:id="rId3"/>
     <sheet name="03_Testing_requirements" sheetId="4" r:id="rId4"/>
+    <sheet name="04_Software_Architecture" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="200">
   <si>
     <t>Navigation</t>
   </si>
@@ -832,14 +833,859 @@
     <t>http://denvich.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Created by Denis Lyakchovich </t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Требование </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>– это описание того, какие функции и с соблюдением каких условий должно выполнять приложение. Требования должны быть избавлены от привязки к способам реализации, внутренней архитектуре продукта и т.п.
+Если в процессе работы с проектом документации не уделено должного внимания, ситуация может стать похожей на представленную на этом рисунке.</t>
+    </r>
+  </si>
+  <si>
+    <t>Следует помнить о том, что стоимость исправления проблемы тем меньше, чем на более ранних стадиях работы с проектом она обнаружена. Поскольку работа с требованиями является одной из начальных стадий, именно здесь можно заранее устранить множество проблем до того, как они возникли.
+Такой подход полностью соответствует принципу "Проблемы следует предупреждать, а не исправлять".</t>
+  </si>
+  <si>
+    <t>Степень важности и глубина тестирования того или иного вида документации и даже отдельного документа определяется большим количеством факторов, но неизменным остаётся общий принцип: всё, что мы создаём в процессе разработки проекта (даже рисунки маркером на доске, даже письма, даже переписку в скайпе), можно считать документацией и так или иначе подвергать тестированию (например, вычитывание письма перед отправкой — это тоже своего рода тестирование документации).</t>
+  </si>
+  <si>
+    <t>Требование - Requrements</t>
+  </si>
+  <si>
+    <t>УРОВНИ ТРЕБОВАНИЙ</t>
+  </si>
+  <si>
+    <t>Created by Denis Lyakhovich</t>
+  </si>
+  <si>
+    <t>БИЗНЕС-ТРЕБОВАНИЯ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Бизнес –требования </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>выражают цель, ради которой разрабатывается продукт (зачем вообще он нужен, какая от него ожидается польза, как заказчик с его помощью будет получать прибыль). Результатом выявления требований на этом уровне является общее видение — документ, который, как правило, представлен простым текстом и таблицами. Здесь нет детализации поведения системы и других технических характеристик.</t>
+    </r>
+  </si>
+  <si>
+    <t>ПОЛЬЗОВАТЕЛЬСКИЕ ТРЕБОВАНИЯ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Пример пользовательских требований:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• При первом входе пользователя в систему должно отображаться лицензионное соглашение.
+• Администратор должен иметь возможность просматривать список всех пользователей, работающих в данный момент в системе.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Пример бизнес-требований:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Нужен инструмент, в реальном времени отображающий наиболее выгодный курс покупки и продажи валюты.
+• Необходимо в два-три раза повысить количество заявок, обрабатываемых одним оператором за смену.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Пользовательские требования </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>описывают задачи, которые пользователь может выполнять с помощью программного продукта. Поскольку здесь уже появляется описание поведения системы, требования этого уровня могут быть использованы для оценки объёма работ, стоимости проекта, времени разработки и т.д. Пользовательские требования оформляются в виде вариантов использования, пользовательских историй, пользовательских сценариев</t>
+    </r>
+  </si>
+  <si>
+    <t>ФУНКЦИОНАЛЬНЫЕ ТРЕБОВАНИЯ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Пример функциональных требований:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В процессе инсталляции приложение должно проверять остаток свободного места на целевом носителе.</t>
+    </r>
+  </si>
+  <si>
+    <t>НЕФУНКЦИОНАЛЬНЫЕ ТРЕБОВАНИЯ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Нефункциональные требования </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>описывают специфические свойства системы (удобство использования, безопасность, надёжность, расширяемость и т.д.), которыми она должна обладать.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Функциональные требования</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> описывают поведение системы, т.е. её действия (вычисления, преобразования, проверки, обработку и т.д.). Стоит помнить, что к поведению системы относится не только то, что система должна делать, но и то, что она не должна делать (например: «приложение не должно выгружать из оперативной памяти фоновые документы в течение 30 минут с момента выполнения с ними последней операции»).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Пример нефункциональных требований:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> При одновременной непрерывной работе с системой 1000 пользователей, минимальное время между возникновением сбоев должно быть более или равно 100 часов.</t>
+    </r>
+  </si>
+  <si>
+    <t>Функциональны требования определяют, «что система должна делать».
+Нефункциональные требования определяют, «с соблюдением каких условий» должно происходить это действие.
+Спецификация требований объединяет в себе описание всех требований уровня продукта и может представлять собой весьма объёмный документ (сотни и тысячи страниц).</t>
+  </si>
+  <si>
+    <t>СВОЙСТВА ТРЕБОВАНИЙ</t>
+  </si>
+  <si>
+    <t>Требования должны быть:</t>
+  </si>
+  <si>
+    <t>Все важные аспекты должны быть включены. Ничто не должно быть оставлено «для
+будущего определения».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Завершёнными - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Непротиворечивыми - </t>
+  </si>
+  <si>
+    <t>Требование не должно содержать противоречий как внутри себя, так и с другими
+требованиями</t>
+  </si>
+  <si>
+    <t>Корректным</t>
+  </si>
+  <si>
+    <t>Требование должно чётко указывать на то, что должно выполнять приложение. Недопустимо при написании требования предполагать, что что-то окажется очевидным. Каждый человек понимает это «очевидное» по-своему.</t>
+  </si>
+  <si>
+    <t>Недвусмысленными</t>
+  </si>
+  <si>
+    <t>Проверяемыми</t>
+  </si>
+  <si>
+    <t>Требование не должно допускать разночтений.</t>
+  </si>
+  <si>
+    <t>Требование должно быть сформулировано так, чтобы существовали способы однозначной проверки – выполнено требование или нет.</t>
+  </si>
+  <si>
+    <t>ПАРАМЕТРЫ ТЕСТИРОВАНИЯ ДОКУМЕНТАЦИИ</t>
+  </si>
+  <si>
+    <t>ЧЕТКОСТЬ И ЯСНОСТЬ</t>
+  </si>
+  <si>
+    <t>Начать тестирование требований можно с поверхностного осмотра документации. Это сложно назвать именно тестированием, но нередко уже на данном этапе выявляется немало недочетов. Начнем с обычного сценария. Вы начали читать требования, и уже с первых строк у Вас возникает масса вопросов к автору (например, «Каков ожидаемый результат после нажатия на эту кнопку?» или «Что будет, если я отменю заказ?»). Это плохо. После прочтения документации не должно быть вопросов. Совсем. Требования – это как свод законов для продукта, а законы не допускают двусмысленность, «воду» и неточности. Документация должна давать предельно ясную информацию о том, как должен работать каждый отдельный модуль и весь продукт в целом. К сожалению, после прочтения большинства требований остается целый ряд вопросов.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Последствия:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>• затраченное время нескольких членов команды;
+                             • несовпадение итогового и изначально планируемого функционалов.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Пример.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В требованиях было записано: «В поле «Имя пользователя» могут быть введены буквы и цифры». Разработчик начал выяснять у аналитика, какие именно буквы (кириллица, латиница или арабские) и какие цифры (целые, дробные, римские) имеются в виду. После уточнения требований разработчик реализовал функционал согласно комментариям аналитика. Задача перешла в тестирование. Тестировщик не понимал, по каким критериям проверять данное поле, и тоже начал расспрашивать аналитика.</t>
+    </r>
+  </si>
+  <si>
+    <t>АКТУАЛЬНОСТЬ</t>
+  </si>
+  <si>
+    <t>Необходимость поддержания актуальности требований кажется очевидной. Однако, на некоторых проектах требования не обновляются месяцами, а то и годами. Это может быть связано с тем, что в штате нет аналитика, а у исполняющего его обязанности сотрудника просто не хватает времени. Случается и другое: требования обновляют только при наличии действительно значимых изменений, при этом различные «мелочи» в виде изменения кнопок или текстов ошибок игнорируются.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Пример.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Было решено изменить положение кнопок на странице авторизации. Аналитик не стал править документацию, а написал разработчику личное сообщение с просьбой поправить расположение кнопок. Разработчик внес правки и закрыл задачу. Во время очередного регрессионного тестирования тестировщик решил, что это дефект, и завел на него баг. Другой разработчик вернул кнопки на прежние позиции согласно документации.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Последствия: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    • время нескольких членов команды потрачено впустую;
+                            • итоговая позиция кнопок не соответствует ожидаемому результату.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Как тестировать:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• при наличии подобных сообщений в командном чате нужно убедиться, что обновленные требования задокументированы;
+• необходимо сравнить даты обновления Технического Задания и Пояснительной Записки с датой последнего обновления требований.</t>
+    </r>
+  </si>
+  <si>
+    <t>ЛОГИКА</t>
+  </si>
+  <si>
+    <t>Как следует из названия, работа системы должна быть логичной. Пользователь не может изменить настройки своего профиля или написать письмо до того, как пройдет авторизацию в системе. Звучит, опять же, элементарно, но в проектах с множеством клиентов или со сложной логикой подобные ошибки часто допускаются.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Пример. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В мобильном приложении появилась необходимость реализовать функционал электронной подписи документа. Пользователю предлагалось ввести свои данные, после чего они автоматически подставлялись в шаблон документа. Приложение открывало документ и предлагало его подписать. Если пользователь понимал, что в документе есть ошибки, то исправить он их уже не мог: у него была возможность только подписать этот документ. Закрытие приложения или его переустановка не помогали – при входе пользователя в аккаунт сразу отображался тот же документ на подпись.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Последствия: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    • пользователь в бешенстве;
+                            • дальнейшая работа с аккаунтом без обращения в техподдержку невозможна.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Как тестировать:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        • нарисовать примерную блок-схему работы системы в соответствии с требованиями и убедиться, что в ней нет логических пробелов;
+                                     • убедиться, что в требованиях описан необходимый основной функционал;
+                                     • убедиться, что взаимодействие между модулями системы изложено корректно.</t>
+    </r>
+  </si>
+  <si>
+    <t>ВОЗМОЖНЫЕ СЦЕНАРИИ</t>
+  </si>
+  <si>
+    <t>В документации должны быть подробно описаны как очевидные, так и неочевидные варианты использования системы. К очевидным (позитивным) вариантам, например, можно отнести ввод корректной пары логин/пароль. К неочевидным (негативным) – ввод некорректной пары логин/ пароль или отсутствие этих данных вовсе.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Пример. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Часто из виду упускаются такие моменты, как тексты ошибок, поведение системы при потере связи, а также обработка ошибок, связанных со сторонними сервисами (например, с оплатой).
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Последстви: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      • при потере связи система ведет себя некорректно (отсутствие ошибок, зависание);
+                            • сообщения об ошибках не очевидны;
+                            • в худшем случае возможны репутационные или финансовые потери.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Как тесторовать: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       • нарисовать блок-схему отдельного модуля системы, в рамках которой обозначить все возможные
+                                    • условия и действия пользователя;
+                                    • убедиться, что в требованиях есть описание каждого возможного случая.</t>
+    </r>
+  </si>
+  <si>
+    <t>ИНТЕГРАЦИЯ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Имеет смысл выделить интеграцию со сторонними сервисами, так как здесь приходится выходить за рамки проверки документации. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Перед началом разработки аналитики, как правило, изучают работу сторонней системы, а затем описывают схему взаимодействия этой системы с разрабатываемым продуктом. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В данном случае вероятность ошибки очень велика, так как ошибиться могут как аналитики, так и представители стороннего сервиса, которые консультировали или писали документацию.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Пример. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  На проекте необходимо было реализовать возможность авторизации через сторонний сервис. Аналитик по ошибке изучил устаревшую документацию стороннего сервиса и описал заведомо нерабочую схему взаимодействия. Разработчики начали работу, в соответствии с готовой схемой, но постоянно получали ошибки. Они «допрашивали» аналитика, а тот в спешке звонил в техподдержку стороннего сервиса и выяснял причины ошибок.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Последствия:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• задержка разработки функционала на неделю.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Как тестировать:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• необходимо вручную проверить, что сторонний сервис обрабатывает все необходимые запросы в соответствии с описанной схемой;
+• проверить, указал ли аналитик корректно и в полном объеме всю необходимую для разработки информацию.</t>
+    </r>
+  </si>
+  <si>
+    <t>ТЕХНИКИ ТЕСТИРОВАНИЯ ТРЕБОВАНИЙ</t>
+  </si>
+  <si>
+    <t>Одной из наиболее активно используемых техник анализа требований является взаимный перепросмотр. Суть взаимного перепросмотра требований проста: после того, как один человек создал требование, другой человек это требование проверяет.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Обычно, выделяют три уровня перепросмотра:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+•</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Неформальный перепросмотр. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Двое коллег просто обмениваются листиками (файликами) и правят найденные ошибки, которые потом обсуждаются за чашкой чая или в любое другое относительно свободное время.
+•</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Технический перепросмотр. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Это немного более формализованный процесс, требующий подготовки, выделенного времени, участия некоторой группы специалистов (желательно, из различных областей).
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Формальная инспекция.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Проводится редко и в случае очень больших проектов и крайней необходимости. Описывается специальными стандартами, требует соблюдения широкого спектра правил и протоколирования результатов.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Универсальные техники:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• Самый простой и не требующий большого опыта способ – задавать как можно больше вопросов. Получая разнообразные ответы от разных участников проекта (как наших коллег, так и представителей заказчика), мы расширяем, углубляем и уточняем своё представление о том, что и как должно работать.
+• Второй способ – создавать тест-кейсы. Когда вы видите требование, спросите себя: «Как я буду его тестировать? Какие тесты очевидно покажут, что это
+требование реализовано в ПС правильно?» Если с придумыванием таких тестов вы испытываете сложность – это тревожный сигнал: скорее всего, в требовании есть проблемы.
+• Третий способ – рисовать. Чтобы увидеть общую картину требований целиком, очень удобно использовать рисунки, схемы, диаграммы и т.д.</t>
+    </r>
+  </si>
+  <si>
+    <t>Требования – это основа разработки, на тестирование которой мало кто обращает внимание. При этом проверка документации – верный способ сохранить команде нервы и время, а проекту – бюджет. При тестировании требований важно помнить, что все члены команды должны понимать их абсолютно одинаково; это убережет от лишних правок уже разработанного функционала в дальнейшем. Кроме того, сократится количество споров внутри коллектива из-за того, что разработчик сделал одно, а аналитик имел в виду совсем другое. Конечно же, гораздо лучше, когда документацию проверяют сразу несколько человек (тестировщиков и разработчиков). Все они смогут задать правильные вопросы, исходя из своих профессиональных особенностей. Такой подход значительно повысит шансы на то, что тестирование требований будет проведено должным образом.</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>04_Software_Architecture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1019,6 +1865,57 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Основной текст)"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri (Основной текст)"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Основной текст)"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Основной текст)"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1064,7 +1961,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1201,12 +2098,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1259,11 +2165,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1271,9 +2192,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1302,26 +2220,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1332,71 +2298,41 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2157,6 +3093,254 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>830384</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>205153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2" descr="page1image64672224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01FC3100-BC2D-EF43-A4D4-44C63930871C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1592385"/>
+          <a:ext cx="6643076" cy="4308230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>58615</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>820615</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>195383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3" descr="page3image64531632">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E32107D-3E69-9C4A-8B7C-DB315C5864DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="58615" y="13217769"/>
+          <a:ext cx="5744308" cy="2217615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>820615</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>205153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4" descr="page7image64501984">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22AF3CCB-71B5-284C-8945-1D2923B5C523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="34475615"/>
+          <a:ext cx="4972538" cy="3897923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Стрелка влево 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234170F8-3364-FE4D-9DB7-9229CA33D323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="71120"/>
+          <a:ext cx="497840" cy="172720"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2459,8 +3643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A740DB0-E423-B94F-A209-E0DAF484A6C8}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2545,7 +3729,9 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2637,24 +3823,24 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29" t="s">
+      <c r="A17" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F15"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C17:F17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" location="Navigation!A1" display="Navigation" xr:uid="{16BDB58C-5515-8445-9C95-70330C64A3F4}"/>
@@ -2662,6 +3848,7 @@
     <hyperlink ref="G5" location="'02_Types_of_testing'!A1" display="02_Types_of_testing" xr:uid="{FA99D64B-0E09-D148-B446-58AAB77D2E24}"/>
     <hyperlink ref="G6" location="'03_Testing_requirements'!A1" display="03_Testing_requirements" xr:uid="{5431E023-4DE7-684E-B55C-0B29CD711701}"/>
     <hyperlink ref="C17" r:id="rId1" xr:uid="{712E2637-5D15-C645-9AEE-4A20FDFF6D77}"/>
+    <hyperlink ref="G7" location="'04_Software_Architecture'!A1" display="04_Software_Architecture" xr:uid="{877B43B3-196B-0A40-A50E-F91D58EDBA9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2671,18 +3858,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA05A89-84EB-0E49-991A-FC716983240E}">
   <dimension ref="A1:BT138"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="139" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:72" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q2" s="9"/>
@@ -2743,25 +3930,25 @@
       <c r="BT2"/>
     </row>
     <row r="3" spans="1:72" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
@@ -2823,25 +4010,25 @@
       </c>
     </row>
     <row r="6" spans="1:72" ht="368" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -2863,25 +4050,25 @@
       <c r="Q7" s="13"/>
     </row>
     <row r="8" spans="1:72" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
@@ -2903,105 +4090,105 @@
       <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:72" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
     </row>
     <row r="11" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
     </row>
     <row r="12" spans="1:72" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
     </row>
     <row r="14" spans="1:72" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
@@ -3390,25 +4577,25 @@
       <c r="Q35" s="13"/>
     </row>
     <row r="36" spans="1:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
@@ -3430,61 +4617,61 @@
       <c r="Q37" s="13"/>
     </row>
     <row r="38" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
     </row>
     <row r="39" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
     </row>
     <row r="40" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -3493,25 +4680,25 @@
       <c r="Q40" s="11"/>
     </row>
     <row r="41" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="42"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="46"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B42" s="11"/>
@@ -3874,64 +5061,64 @@
       <c r="Q61" s="11"/>
     </row>
     <row r="63" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
       <c r="R63" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
     </row>
     <row r="65" spans="1:17" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C67" s="15"/>
@@ -3952,189 +5139,189 @@
       <c r="K82" s="16"/>
     </row>
     <row r="83" spans="1:17" ht="132" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="30"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
     </row>
     <row r="99" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A99" s="44" t="s">
+      <c r="A99" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="44"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
     </row>
     <row r="100" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="33" t="s">
+      <c r="A100" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="33"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33"/>
-      <c r="K100" s="33"/>
-      <c r="L100" s="33"/>
-      <c r="M100" s="33"/>
-      <c r="N100" s="33"/>
-      <c r="O100" s="33"/>
-      <c r="P100" s="33"/>
-      <c r="Q100" s="33"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
     </row>
     <row r="117" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A117" s="44" t="s">
+      <c r="A117" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B117" s="44"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="44"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="44"/>
-      <c r="I117" s="44"/>
-      <c r="J117" s="44"/>
-      <c r="K117" s="44"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
+      <c r="K117" s="30"/>
     </row>
     <row r="118" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="33"/>
-      <c r="K118" s="33"/>
-      <c r="L118" s="33"/>
-      <c r="M118" s="33"/>
-      <c r="N118" s="33"/>
-      <c r="O118" s="33"/>
-      <c r="P118" s="33"/>
-      <c r="Q118" s="33"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="29"/>
+      <c r="M118" s="29"/>
+      <c r="N118" s="29"/>
+      <c r="O118" s="29"/>
+      <c r="P118" s="29"/>
+      <c r="Q118" s="29"/>
       <c r="R118" s="11"/>
     </row>
     <row r="119" spans="1:18" ht="21" x14ac:dyDescent="0.2">
-      <c r="A119" s="46" t="s">
+      <c r="A119" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B119" s="46"/>
-      <c r="C119" s="46"/>
-      <c r="D119" s="46"/>
-      <c r="E119" s="46"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="46"/>
-      <c r="I119" s="46"/>
-      <c r="J119" s="46"/>
-      <c r="K119" s="46"/>
-      <c r="L119" s="46"/>
-      <c r="M119" s="46"/>
-      <c r="N119" s="46"/>
-      <c r="O119" s="46"/>
-      <c r="P119" s="46"/>
-      <c r="Q119" s="46"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="31"/>
+      <c r="K119" s="31"/>
+      <c r="L119" s="31"/>
+      <c r="M119" s="31"/>
+      <c r="N119" s="31"/>
+      <c r="O119" s="31"/>
+      <c r="P119" s="31"/>
+      <c r="Q119" s="31"/>
       <c r="R119" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="33" t="s">
+      <c r="A120" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
-      <c r="J120" s="33"/>
-      <c r="K120" s="33"/>
-      <c r="L120" s="33"/>
-      <c r="M120" s="33"/>
-      <c r="N120" s="33"/>
-      <c r="O120" s="33"/>
-      <c r="P120" s="33"/>
-      <c r="Q120" s="33"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="29"/>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29"/>
+      <c r="O120" s="29"/>
+      <c r="P120" s="29"/>
+      <c r="Q120" s="29"/>
       <c r="R120" s="11"/>
     </row>
     <row r="121" spans="1:18" ht="21" x14ac:dyDescent="0.2">
-      <c r="A121" s="47" t="s">
+      <c r="A121" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B121" s="48"/>
-      <c r="C121" s="48"/>
-      <c r="D121" s="48"/>
-      <c r="E121" s="48"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="48"/>
-      <c r="J121" s="48"/>
-      <c r="K121" s="48"/>
-      <c r="L121" s="48"/>
-      <c r="M121" s="48"/>
-      <c r="N121" s="48"/>
-      <c r="O121" s="48"/>
-      <c r="P121" s="48"/>
-      <c r="Q121" s="48"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="33"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="33"/>
+      <c r="L121" s="33"/>
+      <c r="M121" s="33"/>
+      <c r="N121" s="33"/>
+      <c r="O121" s="33"/>
+      <c r="P121" s="33"/>
+      <c r="Q121" s="33"/>
       <c r="R121" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="33" t="s">
+      <c r="A122" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B122" s="33"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="33"/>
-      <c r="J122" s="33"/>
-      <c r="K122" s="33"/>
-      <c r="L122" s="33"/>
-      <c r="M122" s="33"/>
-      <c r="N122" s="33"/>
-      <c r="O122" s="33"/>
-      <c r="P122" s="33"/>
-      <c r="Q122" s="33"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="29"/>
+      <c r="M122" s="29"/>
+      <c r="N122" s="29"/>
+      <c r="O122" s="29"/>
+      <c r="P122" s="29"/>
+      <c r="Q122" s="29"/>
       <c r="R122" s="5" t="s">
         <v>31</v>
       </c>
@@ -4160,25 +5347,25 @@
       <c r="R123" s="11"/>
     </row>
     <row r="124" spans="1:18" ht="23" x14ac:dyDescent="0.25">
-      <c r="A124" s="45" t="s">
+      <c r="A124" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B124" s="45"/>
-      <c r="C124" s="45"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="45"/>
-      <c r="I124" s="45"/>
-      <c r="J124" s="45"/>
-      <c r="K124" s="45"/>
-      <c r="L124" s="45"/>
-      <c r="M124" s="45"/>
-      <c r="N124" s="45"/>
-      <c r="O124" s="45"/>
-      <c r="P124" s="45"/>
-      <c r="Q124" s="45"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="28"/>
+      <c r="I124" s="28"/>
+      <c r="J124" s="28"/>
+      <c r="K124" s="28"/>
+      <c r="L124" s="28"/>
+      <c r="M124" s="28"/>
+      <c r="N124" s="28"/>
+      <c r="O124" s="28"/>
+      <c r="P124" s="28"/>
+      <c r="Q124" s="28"/>
       <c r="R124" s="11"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
@@ -4202,145 +5389,145 @@
       <c r="R125" s="11"/>
     </row>
     <row r="126" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="33" t="s">
+      <c r="A126" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="33"/>
-      <c r="K126" s="33"/>
-      <c r="L126" s="33"/>
-      <c r="M126" s="33"/>
-      <c r="N126" s="33"/>
-      <c r="O126" s="33"/>
-      <c r="P126" s="33"/>
-      <c r="Q126" s="33"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="29"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="29"/>
+      <c r="M126" s="29"/>
+      <c r="N126" s="29"/>
+      <c r="O126" s="29"/>
+      <c r="P126" s="29"/>
+      <c r="Q126" s="29"/>
       <c r="R126" s="11"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A127" s="33"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="33"/>
-      <c r="I127" s="33"/>
-      <c r="J127" s="33"/>
-      <c r="K127" s="33"/>
-      <c r="L127" s="33"/>
-      <c r="M127" s="33"/>
-      <c r="N127" s="33"/>
-      <c r="O127" s="33"/>
-      <c r="P127" s="33"/>
-      <c r="Q127" s="33"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="29"/>
+      <c r="M127" s="29"/>
+      <c r="N127" s="29"/>
+      <c r="O127" s="29"/>
+      <c r="P127" s="29"/>
+      <c r="Q127" s="29"/>
       <c r="R127" s="11"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A128" s="33"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="33"/>
-      <c r="J128" s="33"/>
-      <c r="K128" s="33"/>
-      <c r="L128" s="33"/>
-      <c r="M128" s="33"/>
-      <c r="N128" s="33"/>
-      <c r="O128" s="33"/>
-      <c r="P128" s="33"/>
-      <c r="Q128" s="33"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="29"/>
+      <c r="M128" s="29"/>
+      <c r="N128" s="29"/>
+      <c r="O128" s="29"/>
+      <c r="P128" s="29"/>
+      <c r="Q128" s="29"/>
       <c r="R128" s="11"/>
     </row>
     <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="33"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
-      <c r="I129" s="33"/>
-      <c r="J129" s="33"/>
-      <c r="K129" s="33"/>
-      <c r="L129" s="33"/>
-      <c r="M129" s="33"/>
-      <c r="N129" s="33"/>
-      <c r="O129" s="33"/>
-      <c r="P129" s="33"/>
-      <c r="Q129" s="33"/>
+      <c r="A129" s="29"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="29"/>
+      <c r="M129" s="29"/>
+      <c r="N129" s="29"/>
+      <c r="O129" s="29"/>
+      <c r="P129" s="29"/>
+      <c r="Q129" s="29"/>
       <c r="R129" s="11"/>
     </row>
     <row r="130" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="33"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="33"/>
-      <c r="J130" s="33"/>
-      <c r="K130" s="33"/>
-      <c r="L130" s="33"/>
-      <c r="M130" s="33"/>
-      <c r="N130" s="33"/>
-      <c r="O130" s="33"/>
-      <c r="P130" s="33"/>
-      <c r="Q130" s="33"/>
+      <c r="A130" s="29"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="29"/>
+      <c r="M130" s="29"/>
+      <c r="N130" s="29"/>
+      <c r="O130" s="29"/>
+      <c r="P130" s="29"/>
+      <c r="Q130" s="29"/>
       <c r="R130" s="11"/>
     </row>
     <row r="131" spans="1:18" ht="1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="33"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="33"/>
-      <c r="I131" s="33"/>
-      <c r="J131" s="33"/>
-      <c r="K131" s="33"/>
-      <c r="L131" s="33"/>
-      <c r="M131" s="33"/>
-      <c r="N131" s="33"/>
-      <c r="O131" s="33"/>
-      <c r="P131" s="33"/>
-      <c r="Q131" s="33"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
+      <c r="K131" s="29"/>
+      <c r="L131" s="29"/>
+      <c r="M131" s="29"/>
+      <c r="N131" s="29"/>
+      <c r="O131" s="29"/>
+      <c r="P131" s="29"/>
+      <c r="Q131" s="29"/>
       <c r="R131" s="11"/>
     </row>
     <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="33"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="33"/>
-      <c r="J132" s="33"/>
-      <c r="K132" s="33"/>
-      <c r="L132" s="33"/>
-      <c r="M132" s="33"/>
-      <c r="N132" s="33"/>
-      <c r="O132" s="33"/>
-      <c r="P132" s="33"/>
-      <c r="Q132" s="33"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="29"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="29"/>
+      <c r="O132" s="29"/>
+      <c r="P132" s="29"/>
+      <c r="Q132" s="29"/>
       <c r="R132" s="11"/>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
@@ -4465,19 +5652,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A124:Q124"/>
-    <mergeCell ref="A126:Q132"/>
-    <mergeCell ref="A117:K117"/>
-    <mergeCell ref="A118:Q118"/>
-    <mergeCell ref="A120:Q120"/>
-    <mergeCell ref="A119:Q119"/>
-    <mergeCell ref="A121:Q121"/>
-    <mergeCell ref="A122:Q122"/>
-    <mergeCell ref="A64:K64"/>
-    <mergeCell ref="A65:Q65"/>
-    <mergeCell ref="A83:Q83"/>
-    <mergeCell ref="A99:K99"/>
-    <mergeCell ref="A100:Q100"/>
     <mergeCell ref="A63:Q63"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:Q3"/>
@@ -4493,6 +5667,19 @@
     <mergeCell ref="A39:Q39"/>
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="A41:Q41"/>
+    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="A65:Q65"/>
+    <mergeCell ref="A83:Q83"/>
+    <mergeCell ref="A99:K99"/>
+    <mergeCell ref="A100:Q100"/>
+    <mergeCell ref="A124:Q124"/>
+    <mergeCell ref="A126:Q132"/>
+    <mergeCell ref="A117:K117"/>
+    <mergeCell ref="A118:Q118"/>
+    <mergeCell ref="A120:Q120"/>
+    <mergeCell ref="A119:Q119"/>
+    <mergeCell ref="A121:Q121"/>
+    <mergeCell ref="A122:Q122"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:C1" location="QA_Manual_Navigation!A1" display="Navigation" xr:uid="{9F88B8BB-B9E9-E94F-AA1C-1169E46A4BBC}"/>
@@ -4510,7 +5697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE243AA2-2AE1-5446-A9F7-C6E663D2FFD9}">
   <dimension ref="A1:BT328"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A152" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4521,11 +5708,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q2" s="9"/>
@@ -4586,25 +5773,25 @@
       <c r="BT2"/>
     </row>
     <row r="3" spans="1:72" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
@@ -4626,47 +5813,47 @@
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:72" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:72" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -4685,32 +5872,32 @@
     <row r="9" spans="1:72" s="19" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -4726,10 +5913,10 @@
     </row>
     <row r="11" spans="1:72" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -4748,30 +5935,30 @@
     <row r="12" spans="1:72" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
     </row>
     <row r="13" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -4790,30 +5977,30 @@
     <row r="14" spans="1:72" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="42"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="60"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4832,30 +6019,30 @@
     <row r="16" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="11"/>
@@ -5328,13 +6515,13 @@
       <c r="Q42" s="11"/>
     </row>
     <row r="43" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -5350,10 +6537,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="69"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -5372,30 +6559,30 @@
     <row r="45" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
     </row>
     <row r="46" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="58"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -5414,31 +6601,31 @@
     <row r="47" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
     </row>
     <row r="48" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -5472,32 +6659,32 @@
       <c r="Q49" s="11"/>
     </row>
     <row r="66" spans="1:17" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="66" t="s">
+      <c r="C66" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="67"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="62"/>
+      <c r="N66" s="62"/>
+      <c r="O66" s="62"/>
+      <c r="P66" s="62"/>
+      <c r="Q66" s="62"/>
     </row>
     <row r="67" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="57" t="s">
+      <c r="A67" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -5512,14 +6699,14 @@
     </row>
     <row r="68" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="65" t="s">
+      <c r="C68" s="55"/>
+      <c r="D68" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E68" s="65"/>
+      <c r="E68" s="63"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -5535,34 +6722,34 @@
     <row r="69" spans="1:17" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="65" t="s">
+      <c r="C70" s="55"/>
+      <c r="D70" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E70" s="65"/>
+      <c r="E70" s="63"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -5578,30 +6765,30 @@
     <row r="71" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="33"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="C72" s="58"/>
+      <c r="C72" s="59"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -5619,30 +6806,30 @@
     <row r="73" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="33"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="33"/>
-      <c r="Q73" s="33"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
     </row>
     <row r="74" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
-      <c r="B74" s="59" t="s">
+      <c r="B74" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="60"/>
+      <c r="C74" s="55"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="24"/>
@@ -5661,23 +6848,23 @@
     <row r="75" spans="1:17" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
-      <c r="C75" s="33" t="s">
+      <c r="C75" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="33"/>
-      <c r="O75" s="33"/>
-      <c r="P75" s="33"/>
-      <c r="Q75" s="33"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
     </row>
     <row r="76" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
@@ -5870,13 +7057,13 @@
       <c r="Q85" s="24"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A86" s="57" t="s">
+      <c r="A86" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B86" s="64"/>
       <c r="C86" s="64"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -5891,10 +7078,10 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="11"/>
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C87" s="60"/>
+      <c r="C87" s="55"/>
       <c r="D87" s="22" t="s">
         <v>64</v>
       </c>
@@ -5914,30 +7101,30 @@
     <row r="88" spans="1:17" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
-      <c r="C88" s="56" t="s">
+      <c r="C88" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="29"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="11"/>
-      <c r="B89" s="59" t="s">
+      <c r="B89" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C89" s="60"/>
+      <c r="C89" s="55"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
@@ -5955,30 +7142,30 @@
     <row r="90" spans="1:17" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
-      <c r="C90" s="56" t="s">
+      <c r="C90" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="33"/>
-      <c r="M90" s="33"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="33"/>
-      <c r="P90" s="33"/>
-      <c r="Q90" s="33"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="11"/>
-      <c r="B91" s="54" t="s">
+      <c r="B91" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="58"/>
+      <c r="C91" s="59"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
@@ -5996,23 +7183,23 @@
     <row r="92" spans="1:17" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="33"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="33"/>
-      <c r="P92" s="33"/>
-      <c r="Q92" s="33"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B93" s="11"/>
@@ -6258,13 +7445,13 @@
       <c r="P106" s="11"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A107" s="57" t="s">
+      <c r="A107" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="57"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="52"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -6279,10 +7466,10 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="11"/>
-      <c r="B108" s="59" t="s">
+      <c r="B108" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C108" s="60"/>
+      <c r="C108" s="55"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
@@ -6300,30 +7487,30 @@
     <row r="109" spans="1:17" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
-      <c r="C109" s="56" t="s">
+      <c r="C109" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
-      <c r="J109" s="33"/>
-      <c r="K109" s="33"/>
-      <c r="L109" s="33"/>
-      <c r="M109" s="33"/>
-      <c r="N109" s="33"/>
-      <c r="O109" s="33"/>
-      <c r="P109" s="33"/>
-      <c r="Q109" s="33"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="29"/>
+      <c r="P109" s="29"/>
+      <c r="Q109" s="29"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
-      <c r="B110" s="59" t="s">
+      <c r="B110" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C110" s="60"/>
+      <c r="C110" s="55"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
@@ -6341,32 +7528,32 @@
     <row r="111" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D111" s="56"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="33"/>
-      <c r="J111" s="33"/>
-      <c r="K111" s="33"/>
-      <c r="L111" s="33"/>
-      <c r="M111" s="33"/>
-      <c r="N111" s="33"/>
-      <c r="O111" s="33"/>
-      <c r="P111" s="33"/>
-      <c r="Q111" s="33"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="29"/>
+      <c r="P111" s="29"/>
+      <c r="Q111" s="29"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A112" s="57" t="s">
+      <c r="A112" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="57"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="52"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
@@ -6381,10 +7568,10 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="11"/>
-      <c r="B113" s="59" t="s">
+      <c r="B113" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C113" s="60"/>
+      <c r="C113" s="55"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
@@ -6402,30 +7589,30 @@
     <row r="114" spans="1:17" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
-      <c r="C114" s="56" t="s">
+      <c r="C114" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
-      <c r="I114" s="33"/>
-      <c r="J114" s="33"/>
-      <c r="K114" s="33"/>
-      <c r="L114" s="33"/>
-      <c r="M114" s="33"/>
-      <c r="N114" s="33"/>
-      <c r="O114" s="33"/>
-      <c r="P114" s="33"/>
-      <c r="Q114" s="33"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="29"/>
+      <c r="M114" s="29"/>
+      <c r="N114" s="29"/>
+      <c r="O114" s="29"/>
+      <c r="P114" s="29"/>
+      <c r="Q114" s="29"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
-      <c r="B115" s="59" t="s">
+      <c r="B115" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C115" s="60"/>
+      <c r="C115" s="55"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
@@ -6443,30 +7630,30 @@
     <row r="116" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
-      <c r="C116" s="56" t="s">
+      <c r="C116" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="33"/>
-      <c r="J116" s="33"/>
-      <c r="K116" s="33"/>
-      <c r="L116" s="33"/>
-      <c r="M116" s="33"/>
-      <c r="N116" s="33"/>
-      <c r="O116" s="33"/>
-      <c r="P116" s="33"/>
-      <c r="Q116" s="33"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="29"/>
+      <c r="N116" s="29"/>
+      <c r="O116" s="29"/>
+      <c r="P116" s="29"/>
+      <c r="Q116" s="29"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="11"/>
-      <c r="B117" s="59" t="s">
+      <c r="B117" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C117" s="60"/>
+      <c r="C117" s="55"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
@@ -6484,32 +7671,32 @@
     <row r="118" spans="1:17" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
-      <c r="C118" s="56" t="s">
+      <c r="C118" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D118" s="56"/>
-      <c r="E118" s="56"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="33"/>
-      <c r="K118" s="33"/>
-      <c r="L118" s="33"/>
-      <c r="M118" s="33"/>
-      <c r="N118" s="33"/>
-      <c r="O118" s="33"/>
-      <c r="P118" s="33"/>
-      <c r="Q118" s="33"/>
+      <c r="D118" s="51"/>
+      <c r="E118" s="51"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="29"/>
+      <c r="M118" s="29"/>
+      <c r="N118" s="29"/>
+      <c r="O118" s="29"/>
+      <c r="P118" s="29"/>
+      <c r="Q118" s="29"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A119" s="61" t="s">
+      <c r="A119" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B119" s="61"/>
-      <c r="C119" s="61"/>
-      <c r="D119" s="61"/>
-      <c r="E119" s="61"/>
+      <c r="B119" s="67"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="67"/>
+      <c r="E119" s="67"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -6523,32 +7710,32 @@
       <c r="P119" s="11"/>
     </row>
     <row r="120" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="62" t="s">
+      <c r="A120" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="B120" s="62"/>
-      <c r="C120" s="62"/>
-      <c r="D120" s="62"/>
-      <c r="E120" s="62"/>
-      <c r="F120" s="62"/>
-      <c r="G120" s="62"/>
-      <c r="H120" s="62"/>
-      <c r="I120" s="62"/>
-      <c r="J120" s="62"/>
-      <c r="K120" s="62"/>
-      <c r="L120" s="62"/>
-      <c r="M120" s="62"/>
-      <c r="N120" s="62"/>
-      <c r="O120" s="62"/>
-      <c r="P120" s="62"/>
-      <c r="Q120" s="62"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="65"/>
+      <c r="D120" s="65"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="65"/>
+      <c r="I120" s="65"/>
+      <c r="J120" s="65"/>
+      <c r="K120" s="65"/>
+      <c r="L120" s="65"/>
+      <c r="M120" s="65"/>
+      <c r="N120" s="65"/>
+      <c r="O120" s="65"/>
+      <c r="P120" s="65"/>
+      <c r="Q120" s="65"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="11"/>
-      <c r="B121" s="59" t="s">
+      <c r="B121" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C121" s="59"/>
+      <c r="C121" s="50"/>
       <c r="D121" s="22" t="s">
         <v>90</v>
       </c>
@@ -6567,10 +7754,10 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="11"/>
-      <c r="B122" s="54" t="s">
+      <c r="B122" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C122" s="63"/>
+      <c r="C122" s="66"/>
       <c r="D122" s="22" t="s">
         <v>90</v>
       </c>
@@ -6589,10 +7776,10 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="11"/>
-      <c r="B123" s="59" t="s">
+      <c r="B123" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C123" s="60"/>
+      <c r="C123" s="55"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
@@ -6610,30 +7797,30 @@
     <row r="124" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
-      <c r="C124" s="56" t="s">
+      <c r="C124" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="33"/>
-      <c r="J124" s="33"/>
-      <c r="K124" s="33"/>
-      <c r="L124" s="33"/>
-      <c r="M124" s="33"/>
-      <c r="N124" s="33"/>
-      <c r="O124" s="33"/>
-      <c r="P124" s="33"/>
-      <c r="Q124" s="33"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="29"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="29"/>
+      <c r="M124" s="29"/>
+      <c r="N124" s="29"/>
+      <c r="O124" s="29"/>
+      <c r="P124" s="29"/>
+      <c r="Q124" s="29"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="11"/>
-      <c r="B125" s="59" t="s">
+      <c r="B125" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C125" s="60"/>
+      <c r="C125" s="55"/>
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
@@ -6651,30 +7838,30 @@
     <row r="126" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
-      <c r="C126" s="56" t="s">
+      <c r="C126" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="33"/>
-      <c r="K126" s="33"/>
-      <c r="L126" s="33"/>
-      <c r="M126" s="33"/>
-      <c r="N126" s="33"/>
-      <c r="O126" s="33"/>
-      <c r="P126" s="33"/>
-      <c r="Q126" s="33"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="29"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="29"/>
+      <c r="M126" s="29"/>
+      <c r="N126" s="29"/>
+      <c r="O126" s="29"/>
+      <c r="P126" s="29"/>
+      <c r="Q126" s="29"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="11"/>
-      <c r="B127" s="59" t="s">
+      <c r="B127" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C127" s="60"/>
+      <c r="C127" s="55"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
@@ -6692,30 +7879,30 @@
     <row r="128" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
-      <c r="C128" s="56" t="s">
+      <c r="C128" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="33"/>
-      <c r="J128" s="33"/>
-      <c r="K128" s="33"/>
-      <c r="L128" s="33"/>
-      <c r="M128" s="33"/>
-      <c r="N128" s="33"/>
-      <c r="O128" s="33"/>
-      <c r="P128" s="33"/>
-      <c r="Q128" s="33"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="29"/>
+      <c r="M128" s="29"/>
+      <c r="N128" s="29"/>
+      <c r="O128" s="29"/>
+      <c r="P128" s="29"/>
+      <c r="Q128" s="29"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="11"/>
-      <c r="B129" s="59" t="s">
+      <c r="B129" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C129" s="60"/>
+      <c r="C129" s="55"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
@@ -6733,30 +7920,30 @@
     <row r="130" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
-      <c r="C130" s="56" t="s">
+      <c r="C130" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="33"/>
-      <c r="J130" s="33"/>
-      <c r="K130" s="33"/>
-      <c r="L130" s="33"/>
-      <c r="M130" s="33"/>
-      <c r="N130" s="33"/>
-      <c r="O130" s="33"/>
-      <c r="P130" s="33"/>
-      <c r="Q130" s="33"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="29"/>
+      <c r="M130" s="29"/>
+      <c r="N130" s="29"/>
+      <c r="O130" s="29"/>
+      <c r="P130" s="29"/>
+      <c r="Q130" s="29"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="11"/>
-      <c r="B131" s="59" t="s">
+      <c r="B131" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C131" s="60"/>
+      <c r="C131" s="55"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
@@ -6774,30 +7961,30 @@
     <row r="132" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
-      <c r="C132" s="56" t="s">
+      <c r="C132" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="33"/>
-      <c r="J132" s="33"/>
-      <c r="K132" s="33"/>
-      <c r="L132" s="33"/>
-      <c r="M132" s="33"/>
-      <c r="N132" s="33"/>
-      <c r="O132" s="33"/>
-      <c r="P132" s="33"/>
-      <c r="Q132" s="33"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="29"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="29"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="29"/>
+      <c r="O132" s="29"/>
+      <c r="P132" s="29"/>
+      <c r="Q132" s="29"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="11"/>
-      <c r="B133" s="59" t="s">
+      <c r="B133" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C133" s="60"/>
+      <c r="C133" s="55"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
@@ -6815,30 +8002,30 @@
     <row r="134" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
-      <c r="C134" s="56" t="s">
+      <c r="C134" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33"/>
-      <c r="G134" s="33"/>
-      <c r="H134" s="33"/>
-      <c r="I134" s="33"/>
-      <c r="J134" s="33"/>
-      <c r="K134" s="33"/>
-      <c r="L134" s="33"/>
-      <c r="M134" s="33"/>
-      <c r="N134" s="33"/>
-      <c r="O134" s="33"/>
-      <c r="P134" s="33"/>
-      <c r="Q134" s="33"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
+      <c r="K134" s="29"/>
+      <c r="L134" s="29"/>
+      <c r="M134" s="29"/>
+      <c r="N134" s="29"/>
+      <c r="O134" s="29"/>
+      <c r="P134" s="29"/>
+      <c r="Q134" s="29"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="11"/>
-      <c r="B135" s="59" t="s">
+      <c r="B135" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C135" s="60"/>
+      <c r="C135" s="55"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
@@ -6856,30 +8043,30 @@
     <row r="136" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
-      <c r="C136" s="56" t="s">
+      <c r="C136" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="33"/>
-      <c r="J136" s="33"/>
-      <c r="K136" s="33"/>
-      <c r="L136" s="33"/>
-      <c r="M136" s="33"/>
-      <c r="N136" s="33"/>
-      <c r="O136" s="33"/>
-      <c r="P136" s="33"/>
-      <c r="Q136" s="33"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="29"/>
+      <c r="M136" s="29"/>
+      <c r="N136" s="29"/>
+      <c r="O136" s="29"/>
+      <c r="P136" s="29"/>
+      <c r="Q136" s="29"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="11"/>
-      <c r="B137" s="59" t="s">
+      <c r="B137" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C137" s="60"/>
+      <c r="C137" s="55"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
@@ -6897,30 +8084,30 @@
     <row r="138" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
-      <c r="C138" s="56" t="s">
+      <c r="C138" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="33"/>
-      <c r="I138" s="33"/>
-      <c r="J138" s="33"/>
-      <c r="K138" s="33"/>
-      <c r="L138" s="33"/>
-      <c r="M138" s="33"/>
-      <c r="N138" s="33"/>
-      <c r="O138" s="33"/>
-      <c r="P138" s="33"/>
-      <c r="Q138" s="33"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="29"/>
+      <c r="M138" s="29"/>
+      <c r="N138" s="29"/>
+      <c r="O138" s="29"/>
+      <c r="P138" s="29"/>
+      <c r="Q138" s="29"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="11"/>
-      <c r="B139" s="54" t="s">
+      <c r="B139" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="C139" s="58"/>
+      <c r="C139" s="59"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
@@ -6938,30 +8125,30 @@
     <row r="140" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
-      <c r="C140" s="56" t="s">
+      <c r="C140" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
-      <c r="I140" s="33"/>
-      <c r="J140" s="33"/>
-      <c r="K140" s="33"/>
-      <c r="L140" s="33"/>
-      <c r="M140" s="33"/>
-      <c r="N140" s="33"/>
-      <c r="O140" s="33"/>
-      <c r="P140" s="33"/>
-      <c r="Q140" s="33"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="29"/>
+      <c r="K140" s="29"/>
+      <c r="L140" s="29"/>
+      <c r="M140" s="29"/>
+      <c r="N140" s="29"/>
+      <c r="O140" s="29"/>
+      <c r="P140" s="29"/>
+      <c r="Q140" s="29"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="11"/>
-      <c r="B141" s="54" t="s">
+      <c r="B141" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C141" s="58"/>
+      <c r="C141" s="59"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
@@ -6979,30 +8166,30 @@
     <row r="142" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
-      <c r="C142" s="56" t="s">
+      <c r="C142" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="33"/>
-      <c r="I142" s="33"/>
-      <c r="J142" s="33"/>
-      <c r="K142" s="33"/>
-      <c r="L142" s="33"/>
-      <c r="M142" s="33"/>
-      <c r="N142" s="33"/>
-      <c r="O142" s="33"/>
-      <c r="P142" s="33"/>
-      <c r="Q142" s="33"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="29"/>
+      <c r="K142" s="29"/>
+      <c r="L142" s="29"/>
+      <c r="M142" s="29"/>
+      <c r="N142" s="29"/>
+      <c r="O142" s="29"/>
+      <c r="P142" s="29"/>
+      <c r="Q142" s="29"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="11"/>
-      <c r="B143" s="54" t="s">
+      <c r="B143" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C143" s="58"/>
+      <c r="C143" s="59"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
@@ -7020,30 +8207,30 @@
     <row r="144" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
-      <c r="C144" s="56" t="s">
+      <c r="C144" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="33"/>
-      <c r="I144" s="33"/>
-      <c r="J144" s="33"/>
-      <c r="K144" s="33"/>
-      <c r="L144" s="33"/>
-      <c r="M144" s="33"/>
-      <c r="N144" s="33"/>
-      <c r="O144" s="33"/>
-      <c r="P144" s="33"/>
-      <c r="Q144" s="33"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="29"/>
+      <c r="K144" s="29"/>
+      <c r="L144" s="29"/>
+      <c r="M144" s="29"/>
+      <c r="N144" s="29"/>
+      <c r="O144" s="29"/>
+      <c r="P144" s="29"/>
+      <c r="Q144" s="29"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="11"/>
-      <c r="B145" s="54" t="s">
+      <c r="B145" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C145" s="58"/>
+      <c r="C145" s="59"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
@@ -7061,30 +8248,30 @@
     <row r="146" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
-      <c r="C146" s="33" t="s">
+      <c r="C146" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="33"/>
-      <c r="J146" s="33"/>
-      <c r="K146" s="33"/>
-      <c r="L146" s="33"/>
-      <c r="M146" s="33"/>
-      <c r="N146" s="33"/>
-      <c r="O146" s="33"/>
-      <c r="P146" s="33"/>
-      <c r="Q146" s="33"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="29"/>
+      <c r="M146" s="29"/>
+      <c r="N146" s="29"/>
+      <c r="O146" s="29"/>
+      <c r="P146" s="29"/>
+      <c r="Q146" s="29"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="11"/>
-      <c r="B147" s="54" t="s">
+      <c r="B147" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="C147" s="55"/>
+      <c r="C147" s="68"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
@@ -7102,32 +8289,32 @@
     <row r="148" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
-      <c r="C148" s="56" t="s">
+      <c r="C148" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D148" s="56"/>
-      <c r="E148" s="56"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="33"/>
-      <c r="I148" s="33"/>
-      <c r="J148" s="33"/>
-      <c r="K148" s="33"/>
-      <c r="L148" s="33"/>
-      <c r="M148" s="33"/>
-      <c r="N148" s="33"/>
-      <c r="O148" s="33"/>
-      <c r="P148" s="33"/>
-      <c r="Q148" s="33"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="51"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="29"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="29"/>
+      <c r="M148" s="29"/>
+      <c r="N148" s="29"/>
+      <c r="O148" s="29"/>
+      <c r="P148" s="29"/>
+      <c r="Q148" s="29"/>
     </row>
     <row r="149" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="57" t="s">
+      <c r="A149" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B149" s="57"/>
-      <c r="C149" s="57"/>
-      <c r="D149" s="57"/>
-      <c r="E149" s="57"/>
+      <c r="B149" s="52"/>
+      <c r="C149" s="52"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="52"/>
       <c r="F149" s="24"/>
       <c r="G149" s="24"/>
       <c r="H149" s="24"/>
@@ -7143,10 +8330,10 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="11"/>
-      <c r="B150" s="54" t="s">
+      <c r="B150" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="C150" s="55"/>
+      <c r="C150" s="68"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
@@ -7164,30 +8351,30 @@
     <row r="151" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
-      <c r="C151" s="33" t="s">
+      <c r="C151" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="33"/>
-      <c r="H151" s="33"/>
-      <c r="I151" s="33"/>
-      <c r="J151" s="33"/>
-      <c r="K151" s="33"/>
-      <c r="L151" s="33"/>
-      <c r="M151" s="33"/>
-      <c r="N151" s="33"/>
-      <c r="O151" s="33"/>
-      <c r="P151" s="33"/>
-      <c r="Q151" s="33"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="29"/>
+      <c r="J151" s="29"/>
+      <c r="K151" s="29"/>
+      <c r="L151" s="29"/>
+      <c r="M151" s="29"/>
+      <c r="N151" s="29"/>
+      <c r="O151" s="29"/>
+      <c r="P151" s="29"/>
+      <c r="Q151" s="29"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="11"/>
-      <c r="B152" s="54" t="s">
+      <c r="B152" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="C152" s="55"/>
+      <c r="C152" s="68"/>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
@@ -7205,30 +8392,30 @@
     <row r="153" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
-      <c r="C153" s="33" t="s">
+      <c r="C153" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
-      <c r="I153" s="33"/>
-      <c r="J153" s="33"/>
-      <c r="K153" s="33"/>
-      <c r="L153" s="33"/>
-      <c r="M153" s="33"/>
-      <c r="N153" s="33"/>
-      <c r="O153" s="33"/>
-      <c r="P153" s="33"/>
-      <c r="Q153" s="33"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="29"/>
+      <c r="J153" s="29"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="29"/>
+      <c r="M153" s="29"/>
+      <c r="N153" s="29"/>
+      <c r="O153" s="29"/>
+      <c r="P153" s="29"/>
+      <c r="Q153" s="29"/>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="11"/>
-      <c r="B154" s="54" t="s">
+      <c r="B154" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="C154" s="55"/>
+      <c r="C154" s="68"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
@@ -7246,23 +8433,23 @@
     <row r="155" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
-      <c r="C155" s="33" t="s">
+      <c r="C155" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D155" s="33"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
-      <c r="I155" s="33"/>
-      <c r="J155" s="33"/>
-      <c r="K155" s="33"/>
-      <c r="L155" s="33"/>
-      <c r="M155" s="33"/>
-      <c r="N155" s="33"/>
-      <c r="O155" s="33"/>
-      <c r="P155" s="33"/>
-      <c r="Q155" s="33"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="29"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="29"/>
+      <c r="M155" s="29"/>
+      <c r="N155" s="29"/>
+      <c r="O155" s="29"/>
+      <c r="P155" s="29"/>
+      <c r="Q155" s="29"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="13"/>
@@ -7284,25 +8471,25 @@
       <c r="Q156" s="26"/>
     </row>
     <row r="157" spans="1:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="53" t="s">
+      <c r="A157" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B157" s="53"/>
-      <c r="C157" s="53"/>
-      <c r="D157" s="53"/>
-      <c r="E157" s="53"/>
-      <c r="F157" s="53"/>
-      <c r="G157" s="53"/>
-      <c r="H157" s="53"/>
-      <c r="I157" s="53"/>
-      <c r="J157" s="53"/>
-      <c r="K157" s="53"/>
-      <c r="L157" s="53"/>
-      <c r="M157" s="53"/>
-      <c r="N157" s="53"/>
-      <c r="O157" s="53"/>
-      <c r="P157" s="53"/>
-      <c r="Q157" s="53"/>
+      <c r="B157" s="69"/>
+      <c r="C157" s="69"/>
+      <c r="D157" s="69"/>
+      <c r="E157" s="69"/>
+      <c r="F157" s="69"/>
+      <c r="G157" s="69"/>
+      <c r="H157" s="69"/>
+      <c r="I157" s="69"/>
+      <c r="J157" s="69"/>
+      <c r="K157" s="69"/>
+      <c r="L157" s="69"/>
+      <c r="M157" s="69"/>
+      <c r="N157" s="69"/>
+      <c r="O157" s="69"/>
+      <c r="P157" s="69"/>
+      <c r="Q157" s="69"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="13"/>
@@ -7324,55 +8511,55 @@
       <c r="Q158" s="9"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A159" s="33" t="s">
+      <c r="A159" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="33"/>
-      <c r="J159" s="33"/>
-      <c r="K159" s="33"/>
-      <c r="L159" s="33"/>
-      <c r="M159" s="33"/>
-      <c r="N159" s="33"/>
-      <c r="O159" s="33"/>
-      <c r="P159" s="33"/>
-      <c r="Q159" s="33"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="29"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="29"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="29"/>
+      <c r="M159" s="29"/>
+      <c r="N159" s="29"/>
+      <c r="O159" s="29"/>
+      <c r="P159" s="29"/>
+      <c r="Q159" s="29"/>
     </row>
     <row r="160" spans="1:17" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="33" t="s">
+      <c r="A160" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B160" s="33"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="33"/>
-      <c r="G160" s="33"/>
-      <c r="H160" s="33"/>
-      <c r="I160" s="33"/>
-      <c r="J160" s="33"/>
-      <c r="K160" s="33"/>
-      <c r="L160" s="33"/>
-      <c r="M160" s="33"/>
-      <c r="N160" s="33"/>
-      <c r="O160" s="33"/>
-      <c r="P160" s="33"/>
-      <c r="Q160" s="33"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
+      <c r="I160" s="29"/>
+      <c r="J160" s="29"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="29"/>
+      <c r="M160" s="29"/>
+      <c r="N160" s="29"/>
+      <c r="O160" s="29"/>
+      <c r="P160" s="29"/>
+      <c r="Q160" s="29"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A161" s="50" t="s">
+      <c r="A161" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="B161" s="51"/>
-      <c r="C161" s="51"/>
-      <c r="D161" s="51"/>
-      <c r="E161" s="52"/>
+      <c r="B161" s="71"/>
+      <c r="C161" s="71"/>
+      <c r="D161" s="71"/>
+      <c r="E161" s="72"/>
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
@@ -7387,10 +8574,10 @@
     </row>
     <row r="162" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11"/>
-      <c r="B162" s="49" t="s">
+      <c r="B162" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C162" s="49"/>
+      <c r="C162" s="60"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
@@ -7407,10 +8594,10 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="11"/>
-      <c r="B163" s="49" t="s">
+      <c r="B163" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C163" s="49"/>
+      <c r="C163" s="60"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
@@ -7427,10 +8614,10 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="11"/>
-      <c r="B164" s="49" t="s">
+      <c r="B164" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="C164" s="49"/>
+      <c r="C164" s="60"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
@@ -7446,13 +8633,13 @@
       <c r="P164" s="11"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A165" s="50" t="s">
+      <c r="A165" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B165" s="51"/>
-      <c r="C165" s="51"/>
-      <c r="D165" s="51"/>
-      <c r="E165" s="52"/>
+      <c r="B165" s="71"/>
+      <c r="C165" s="71"/>
+      <c r="D165" s="71"/>
+      <c r="E165" s="72"/>
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
@@ -7467,10 +8654,10 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="11"/>
-      <c r="B166" s="49" t="s">
+      <c r="B166" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C166" s="49"/>
+      <c r="C166" s="60"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
@@ -7487,10 +8674,10 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="11"/>
-      <c r="B167" s="49" t="s">
+      <c r="B167" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C167" s="49"/>
+      <c r="C167" s="60"/>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
@@ -7507,10 +8694,10 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="11"/>
-      <c r="B168" s="49" t="s">
+      <c r="B168" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="C168" s="49"/>
+      <c r="C168" s="60"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
@@ -10408,60 +11595,36 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C9:Q9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="C45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="C47:Q47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="C66:Q66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="C69:Q69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="C71:Q71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="C73:Q73"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="C88:Q88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="C90:Q90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="C92:Q92"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="C109:Q109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="C111:Q111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="A120:Q120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="C114:Q114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="C116:Q116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="C118:Q118"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="A157:Q157"/>
+    <mergeCell ref="A159:Q159"/>
+    <mergeCell ref="A160:Q160"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="C153:Q153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="C155:Q155"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="C148:Q148"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="C151:Q151"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="C142:Q142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="C144:Q144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="C146:Q146"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="C138:Q138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="C140:Q140"/>
+    <mergeCell ref="B141:C141"/>
     <mergeCell ref="C134:Q134"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="C75:Q75"/>
@@ -10478,36 +11641,60 @@
     <mergeCell ref="B127:C127"/>
     <mergeCell ref="C128:Q128"/>
     <mergeCell ref="A119:E119"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="C138:Q138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="C140:Q140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="C142:Q142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="C144:Q144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="C146:Q146"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="C153:Q153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="C155:Q155"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="C148:Q148"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="C151:Q151"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A157:Q157"/>
-    <mergeCell ref="A159:Q159"/>
-    <mergeCell ref="A160:Q160"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="A120:Q120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="C114:Q114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="C116:Q116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="C118:Q118"/>
+    <mergeCell ref="C109:Q109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="C111:Q111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="C90:Q90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="C92:Q92"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="C73:Q73"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="C88:Q88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="C69:Q69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="C71:Q71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="C66:Q66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="C45:Q45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="C47:Q47"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="C16:Q16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C12:Q12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:C1" location="QA_Manual_Navigation!A1" display="Navigation" xr:uid="{4DBA0A7F-19D4-244A-89E4-4E6CDA677AC3}"/>
@@ -10519,7 +11706,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C51877D-AB61-E341-B2A3-ED8C939EB8C9}">
-  <dimension ref="A1:BT4"/>
+  <dimension ref="A1:BT143"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -10528,11 +11715,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:72" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q2" s="9"/>
@@ -10593,25 +11780,25 @@
       <c r="BT2"/>
     </row>
     <row r="3" spans="1:72" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
@@ -10632,10 +11819,2416 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
     </row>
+    <row r="5" spans="1:72" s="73" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+    </row>
+    <row r="6" spans="1:72" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+    </row>
+    <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+    </row>
+    <row r="29" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+      <c r="A31" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+    </row>
+    <row r="34" spans="1:17" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+    </row>
+    <row r="35" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+    </row>
+    <row r="37" spans="1:17" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+    </row>
+    <row r="38" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+    </row>
+    <row r="40" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+    </row>
+    <row r="41" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+    </row>
+    <row r="44" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+    </row>
+    <row r="56" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+    </row>
+    <row r="61" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+    </row>
+    <row r="62" spans="1:17" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+    </row>
+    <row r="63" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+    </row>
+    <row r="64" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="11"/>
+      <c r="B64" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+    </row>
+    <row r="65" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+    </row>
+    <row r="66" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="11"/>
+      <c r="B66" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+    </row>
+    <row r="67" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+    </row>
+    <row r="68" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="11"/>
+      <c r="B68" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+    </row>
+    <row r="69" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="11"/>
+      <c r="B70" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="78"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="78"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" spans="1:17" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+    </row>
+    <row r="75" spans="1:17" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
+      <c r="B75" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+    </row>
+    <row r="76" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="11"/>
+      <c r="B76" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="29"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+    </row>
+    <row r="77" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="11"/>
+      <c r="B77" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" s="82"/>
+      <c r="D77" s="82"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="82"/>
+      <c r="H77" s="82"/>
+      <c r="I77" s="80"/>
+      <c r="J77" s="80"/>
+      <c r="K77" s="80"/>
+      <c r="L77" s="80"/>
+      <c r="M77" s="80"/>
+      <c r="N77" s="80"/>
+      <c r="O77" s="80"/>
+      <c r="P77" s="80"/>
+      <c r="Q77" s="80"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+    </row>
+    <row r="79" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="11"/>
+      <c r="B79" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+    </row>
+    <row r="80" spans="1:17" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="11"/>
+      <c r="B80" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="29"/>
+    </row>
+    <row r="81" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="11"/>
+      <c r="B81" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="29"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+    </row>
+    <row r="82" spans="1:17" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="11"/>
+      <c r="B82" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+    </row>
+    <row r="84" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+    </row>
+    <row r="85" spans="1:17" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="11"/>
+      <c r="B85" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+    </row>
+    <row r="86" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="11"/>
+      <c r="B86" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+    </row>
+    <row r="87" spans="1:17" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
+      <c r="B87" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+    </row>
+    <row r="88" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="67"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11"/>
+    </row>
+    <row r="89" spans="1:17" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="11"/>
+      <c r="B89" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+    </row>
+    <row r="90" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="11"/>
+      <c r="B90" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+    </row>
+    <row r="91" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="11"/>
+      <c r="B91" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+    </row>
+    <row r="92" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="11"/>
+      <c r="B92" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="29"/>
+      <c r="P92" s="29"/>
+      <c r="Q92" s="29"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="67"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+    </row>
+    <row r="94" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="11"/>
+      <c r="B94" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+    </row>
+    <row r="95" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="11"/>
+      <c r="B95" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+    </row>
+    <row r="96" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="11"/>
+      <c r="B96" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="29"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="29"/>
+    </row>
+    <row r="97" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="11"/>
+      <c r="B97" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="29"/>
+      <c r="P97" s="29"/>
+      <c r="Q97" s="29"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+      <c r="A99" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="40"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="40"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" s="11"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
+      <c r="P105" s="11"/>
+      <c r="Q105" s="11"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="Q107" s="11"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="Q108" s="11"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="Q109" s="11"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="Q110" s="11"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="11"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="Q112" s="11"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="Q114" s="11"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="Q117" s="11"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="11"/>
+      <c r="Q119" s="11"/>
+    </row>
+    <row r="120" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="29"/>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29"/>
+      <c r="O120" s="29"/>
+      <c r="P120" s="29"/>
+      <c r="Q120" s="29"/>
+    </row>
+    <row r="121" spans="1:17" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="29"/>
+      <c r="M121" s="29"/>
+      <c r="N121" s="29"/>
+      <c r="O121" s="29"/>
+      <c r="P121" s="29"/>
+      <c r="Q121" s="29"/>
+    </row>
+    <row r="122" spans="1:17" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="29"/>
+      <c r="M122" s="29"/>
+      <c r="N122" s="29"/>
+      <c r="O122" s="29"/>
+      <c r="P122" s="29"/>
+      <c r="Q122" s="29"/>
+    </row>
+    <row r="123" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="26"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="26"/>
+      <c r="M123" s="26"/>
+      <c r="N123" s="26"/>
+      <c r="O123" s="26"/>
+      <c r="P123" s="26"/>
+      <c r="Q123" s="26"/>
+    </row>
+    <row r="124" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+      <c r="A124" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B124" s="40"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="40"/>
+      <c r="I124" s="40"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="40"/>
+      <c r="L124" s="40"/>
+      <c r="M124" s="40"/>
+      <c r="N124" s="40"/>
+      <c r="O124" s="40"/>
+      <c r="P124" s="40"/>
+      <c r="Q124" s="40"/>
+    </row>
+    <row r="125" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="29"/>
+      <c r="M125" s="29"/>
+      <c r="N125" s="29"/>
+      <c r="O125" s="29"/>
+      <c r="P125" s="29"/>
+      <c r="Q125" s="29"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
+      <c r="O126" s="13"/>
+      <c r="P126" s="13"/>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
+      <c r="Q139" s="11"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+      <c r="O141" s="11"/>
+      <c r="P141" s="11"/>
+      <c r="Q141" s="11"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+      <c r="O142" s="11"/>
+      <c r="P142" s="11"/>
+      <c r="Q142" s="11"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="11"/>
+      <c r="Q143" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="63">
+    <mergeCell ref="A125:Q125"/>
+    <mergeCell ref="A124:Q124"/>
+    <mergeCell ref="B97:Q97"/>
+    <mergeCell ref="A99:Q99"/>
+    <mergeCell ref="A120:Q120"/>
+    <mergeCell ref="A121:Q121"/>
+    <mergeCell ref="A122:Q122"/>
+    <mergeCell ref="B92:Q92"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="B94:Q94"/>
+    <mergeCell ref="B95:Q95"/>
+    <mergeCell ref="B96:Q96"/>
+    <mergeCell ref="B87:Q87"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="B89:Q89"/>
+    <mergeCell ref="B90:Q90"/>
+    <mergeCell ref="B91:Q91"/>
+    <mergeCell ref="B82:Q82"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="B84:Q84"/>
+    <mergeCell ref="B85:Q85"/>
+    <mergeCell ref="B86:Q86"/>
+    <mergeCell ref="B77:Q77"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="B79:Q79"/>
+    <mergeCell ref="B80:Q80"/>
+    <mergeCell ref="B81:Q81"/>
+    <mergeCell ref="B70:Q70"/>
+    <mergeCell ref="A72:Q72"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="B75:Q75"/>
+    <mergeCell ref="B76:Q76"/>
+    <mergeCell ref="B64:Q64"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="B66:Q66"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="B68:Q68"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="B62:Q62"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="B43:Q43"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="A56:Q56"/>
+    <mergeCell ref="A58:Q58"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B38:Q38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="B40:Q40"/>
+    <mergeCell ref="B41:Q41"/>
+    <mergeCell ref="A31:Q31"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="B34:Q34"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="A36:H36"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A5:Q5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:C1" location="QA_Manual_Navigation!A1" display="Navigation" xr:uid="{B6E5E671-6D4F-474C-ADDD-B48F8F4E5EAD}"/>
@@ -10643,4 +14236,132 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E67E53-D3B2-704A-854D-51237837B56F}">
+  <dimension ref="A1:BT4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:72" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q2" s="9"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+    </row>
+    <row r="3" spans="1:72" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:Q3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1:C1" location="QA_Manual_Navigation!A1" display="Navigation" xr:uid="{23C7379D-972E-DA4A-BF77-06028A2BE273}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>